--- a/Data/Planets.xlsx
+++ b/Data/Planets.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files (x86)\Steam\steamapps\common\Star Wars Empire at War\corruption\mods\ROTE\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA3A79E6-82D0-45C0-A2FB-39D5CA787148}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FF0804A-D94D-4A87-81B5-79562B26341E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9615" uniqueCount="4739">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9615" uniqueCount="4741">
   <si>
     <t>Planet</t>
   </si>
@@ -14242,7 +14242,13 @@
     <t>w_planetGC_Kuat.alo</t>
   </si>
   <si>
-    <t>w_planetGC_yavin.alo</t>
+    <t>w_planetGC_nallhutta.alo</t>
+  </si>
+  <si>
+    <t>w_planetGC_yavin4.alo</t>
+  </si>
+  <si>
+    <t>w_planetGC_coruscant.alo</t>
   </si>
 </sst>
 </file>
@@ -14620,8 +14626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL402"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A204" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K222" sqref="K222"/>
+    <sheetView tabSelected="1" topLeftCell="A336" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I354" sqref="I354"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -38200,7 +38206,7 @@
         <v>3</v>
       </c>
       <c r="I222" t="s">
-        <v>4738</v>
+        <v>4739</v>
       </c>
       <c r="J222" s="3" t="s">
         <v>650</v>
@@ -45119,7 +45125,7 @@
         <v>5</v>
       </c>
       <c r="I287" t="s">
-        <v>4629</v>
+        <v>4738</v>
       </c>
       <c r="J287" s="3" t="s">
         <v>650</v>
@@ -52288,7 +52294,7 @@
         <v>7</v>
       </c>
       <c r="I354" t="s">
-        <v>4625</v>
+        <v>4740</v>
       </c>
       <c r="J354" t="s">
         <v>650</v>
